--- a/opencart — копия.xlsx
+++ b/opencart — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\main\Desktop\Python\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B663C88-CCF7-4DFF-B9BF-CAE3516214D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D729473-2692-49EA-91DF-DA8937653AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="707">
   <si>
     <t>_MODEL_</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Электрический краскопульт ЗУБР 350 Вт КПЭ-350</t>
-  </si>
-  <si>
-    <t>Инструмент|Краскопульты|Электрические|ЗУБР</t>
   </si>
   <si>
     <t>ЗУБР</t>
@@ -214,9 +211,6 @@
     <t>Электрический краскопульт Вихрь ЭКП-700В 72/17/1</t>
   </si>
   <si>
-    <t>Инструмент|Краскопульты|Электрические|Вихрь</t>
-  </si>
-  <si>
     <t>Вихрь</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>Электрический ручной вибратор EDON CV-35/1100 1001170105</t>
   </si>
   <si>
-    <t>Строительное оборудование|Вибротехника|Вибраторы|Приводы к глубинным вибраторам|EDON</t>
-  </si>
-  <si>
     <t>EDON</t>
   </si>
   <si>
@@ -353,9 +344,6 @@
     <t>Электрический гравер ЗУБР ЗГ-135</t>
   </si>
   <si>
-    <t>Инструмент|Граверы|Электрические|ЗУБР</t>
-  </si>
-  <si>
     <t>Электрический гравер ЗУБР ЗГ-135 помогает шлифовать, полировать, сверлить, фрезеровать и гравировать поверхности из дерева, стали, камня, плитки и т.д.
 Благодаря блокировке шпинделя заменить оснастку не составляет труда.
 Наружное расположение технического узла позволяет менять угольные щетки быстро и без использования дополнительных инструментов.</t>
@@ -390,9 +378,6 @@
     <t>Электрический гравер Вихрь Г-160ГВ 72/4/2</t>
   </si>
   <si>
-    <t>Инструмент|Граверы|Электрические|Вихрь</t>
-  </si>
-  <si>
     <t>Электрический гравер Вихрь Г-160ГВ 72/4/2 предназначен для выполнения широкого спектра работ, таких как: резка, сверление, полирование, гравирование, фрезерование и зачистка.
 Гибкий вал дает возможность работы в труднодоступных местах.
 Предусмотрена возможность быстрой замены щеток без обращения в сервисные центры.</t>
@@ -422,9 +407,6 @@
   </si>
   <si>
     <t>Электрический гравер Ресанта Г-180ЭГ 75/4/1</t>
-  </si>
-  <si>
-    <t>Инструмент|Граверы|Электрические|Ресанта</t>
   </si>
   <si>
     <t>Ресанта</t>
@@ -464,9 +446,6 @@
     <t>Гравировальная машина ЭЛЕКТРОПРИБОР ГЭ-170ГВ</t>
   </si>
   <si>
-    <t>Инструмент|Граверы|Электрические|ЭЛЕКТРОПРИБОР</t>
-  </si>
-  <si>
     <t>ЭЛЕКТРОПРИБОР</t>
   </si>
   <si>
@@ -504,9 +483,6 @@
     <t>Отбойный молоток Вихрь ОМ-1750Э 72/23/1</t>
   </si>
   <si>
-    <t>Инструмент|Отбойные молотки|С шестигранным патроном|Вихрь</t>
-  </si>
-  <si>
     <t>Отбойный молоток Вихрь ОМ-1750Э 72/23/1 предназначен для различных демонтажных работах (разборки кирпичных и каменных стен, разрушения бетонных конструкций, излома асфальта, кирпича, бетона, каменной породы и т.д.).
 Дополнительная рукоятка обеспечивает лучший контроль над инструментом.
 Кейс защищает инструмент от повреждений во время транспортировки и облегчает процесс хранения.
@@ -538,9 +514,6 @@
   </si>
   <si>
     <t>Сабельная пила ЗУБР МАСТЕР ЗПС-1400 Э</t>
-  </si>
-  <si>
-    <t>Инструмент|Пилы|Сабельные|Электрические|ЗУБР</t>
   </si>
   <si>
     <t>Сабельная пила ЗУБР МАСТЕР ЗПС-1400 Э применяется для резки древесины, фанеры, металлического профиля, пластмассы, твердых строительный материалов. Обеспечивает быстрый и качественный распил.
@@ -582,9 +555,6 @@
   </si>
   <si>
     <t>Сабельная пила ЗУБР СПЛ-125-22</t>
-  </si>
-  <si>
-    <t>Инструмент|Аккумуляторный инструмент|Пилы|Сабельные|ЗУБР</t>
   </si>
   <si>
     <t>Сабельная пила ЗУБР СПЛ-125-22 предназначена для продольного, поперечного, под углом и фигурного пиления заготовок из дерева, фанеры, ДСП, пластмасс, металла и пенобетона (при установке соответствующего полотна).
@@ -679,9 +649,6 @@
     <t>Сабельная пила Вихрь ПС-900Э 72/25/1</t>
   </si>
   <si>
-    <t>Инструмент|Пилы|Сабельные|Электрические|Вихрь</t>
-  </si>
-  <si>
     <t>Сабельная пила Вихрь ПС-900Э 72/25/1 предназначена для распила древесины, железа, цветных металлов, пластмассы. Оснащается двигателем мощностью 900 Вт.
 Быстрозажимной патрон позволяет без труда и потери времени менять пильные полотна.
 Регулируемое число оборотов дает возможность подобрать оптимальный рабочий режим.
@@ -723,9 +690,6 @@
     <t>Технический фен ЗУБР ПРОФЕССИОНАЛ ФТ-П2000 М2Д</t>
   </si>
   <si>
-    <t>Инструмент|Фены (Термопистолеты)|Сетевые|ЗУБР</t>
-  </si>
-  <si>
     <t>Технический фен ЗУБР ПРОФЕССИОНАЛ ФТ-П2000 М2Д оснащен усовершенствованным нагревательным элементом. Предназначен для генерации горячего воздуха. Пригодится при сушке лакокрасочных покрытий и клеевых соединений, пайки, лужения, размораживания труб.
 Модель имеет 2 режима работы с разной температурой и потоком воздуха.
 Наличие ЖК-дисплея позволяет выполнять точную установку температуры и контролировать ее в процессе выполнения рабочих операций.
@@ -889,9 +853,6 @@
     <t>Строительный фен REDVERG RD-HG2000D 6631655</t>
   </si>
   <si>
-    <t>Инструмент|Фены (Термопистолеты)|Сетевые|REDVERG</t>
-  </si>
-  <si>
     <t>REDVERG</t>
   </si>
   <si>
@@ -937,9 +898,6 @@
     <t>Электрический фен Интерскол ФЭ-2000ЭМ 385.0.1.00</t>
   </si>
   <si>
-    <t>Инструмент|Фены (Термопистолеты)|Сетевые|Интерскол</t>
-  </si>
-  <si>
     <t>Интерскол</t>
   </si>
   <si>
@@ -1005,9 +963,6 @@
   </si>
   <si>
     <t>Строительный фен Ресанта ФЭ-2000К 75/2/1</t>
-  </si>
-  <si>
-    <t>Инструмент|Фены (Термопистолеты)|Сетевые|Ресанта</t>
   </si>
   <si>
     <t>Строительный фен Ресанта ФЭ-2000К 75/2/1 используется для обработки поверхностей горячим воздухом. С его помощью можно удалить лакокрасочные материалы, нагреть термоусадочные трубы, размягчить клей и т.д.
@@ -1081,9 +1036,6 @@
   </si>
   <si>
     <t>Циркулярная пила ЗУБР 900 Вт ЗПД-900</t>
-  </si>
-  <si>
-    <t>Инструмент|Пилы|Циркулярные (дисковые)|ЗУБР</t>
   </si>
   <si>
     <t>Циркулярная пила ЗУБР ЗПД-900 - бытовой инструмент, укомплектованный двигателем мощностью 900 Вт. Применяется для распиливания заготовок из древесины или пластика толщиной до 45 мм. В пиле предусмотрены два защитных кожуха диска для предотвращения травм оператора во время работы. Рукоятки пилы имеют удобную для захвата форму. Система пылеудаления сохраняет чистоту рабочего пространства и защищает пользователя  от мелкой стружки и пыли.</t>
@@ -1313,9 +1265,6 @@
     <t>Дисковая пила ВИХРЬ ДП-140/1100 72/11/3</t>
   </si>
   <si>
-    <t>Инструмент|Пилы|Циркулярные (дисковые)|Вихрь</t>
-  </si>
-  <si>
     <t>Дисковая пила ВИХРЬ ДП-140/1100 72/11/3 оснащена надежным электрическим двигателем, который обеспечивает производительную и бесперебойную работу. Предусмотрен патрубок для подключения пылесоса с целью поддержания чистоты рабочего места. Пильный диск закрыт специальным кожухом, который защищает оператора от травм. Удобная рукоятка для надежного удержания инструмента во время работы. Возможность выполнения пропилов под углом 0-45 градусов.</t>
   </si>
   <si>
@@ -1553,9 +1502,6 @@
     <t>Дисковая пила Ресанта ДП-165/1300 75/11/1</t>
   </si>
   <si>
-    <t>Инструмент|Пилы|Циркулярные (дисковые)|Ресанта</t>
-  </si>
-  <si>
     <t>Дисковая пила Ресанта ДП-165/1300 75/11/1 предназначена для распила дерева, цветных металлов и пластика.
 Небольшие размеры и вес упрощают хранение и транспортировку инструмента.
 Кожух на корпусе защищает оператора от случайного прикосновения к диску.
@@ -1634,9 +1580,6 @@
   </si>
   <si>
     <t>Торцовочная комбинированная пила ЗУБР ЗПТК-210-1500</t>
-  </si>
-  <si>
-    <t>Инструмент|Пилы|Комбинированные торцовочные|ЗУБР</t>
   </si>
   <si>
     <t>Торцовочная комбинированная пила ЗУБР ЗПТК-210-1500 сочетает в себе все функции и преимущества настольной и торцовочной пилы. Она используется для прямого, косого и комбинированного пиления, а также пиления под наклоном. Для поддержания рабочего места в чистоте предусмотрена система пылеудаления, включающая в себя мешок для сбора пыли. Инструмент гарантирует качественный результат при любом типе работы. Вертикальный ход диска в режиме настольной пилы - 0-30 мм.</t>
@@ -1678,9 +1621,6 @@
   </si>
   <si>
     <t>Торцовочная пила ЗУБР 190 ЗПТ-190-1200 ПЛ</t>
-  </si>
-  <si>
-    <t>Инструмент|Пилы|Торцовочные|ЗУБР</t>
   </si>
   <si>
     <t>Торцовочная пила ЗУБР 190 ЗПТ-190-1200 ПЛ используется для быстрого пиления древесины. Благодаря подвижной голове можно производить резку габаритных заготовок.
@@ -1912,9 +1852,6 @@
     <t>Ленточная шлифовальная машина ЗУБР ЗЛШМ-76-950</t>
   </si>
   <si>
-    <t>Инструмент|Шлифмашинки|Ленточные|Сетевые ленточные шлифмашины|ЗУБР</t>
-  </si>
-  <si>
     <t>Ленточная шлифовальная машина ЗУБР ЗЛШМ-76-950 прекрасно обдирает, зачищает и шлифует различные поверхности из дерева, металла, пластмассы и т.д. Оптимальная скорость движения ленты - для выполнения различных работ. Ременная передача между двигателем и ведущим валиком защищает двигатель при ударных нагрузках, что гарантирует более долгий срок службы.
 Удобная машина для производительной работы с различными материалами. Установка лент стандартного размера разной зернистости позволяет осуществлять разные работы - грубую обдирку, зачистку от ржавчины и ЛКМ, предварительное шлифование. Встроенная система пылеудаления обеспечивает сбор пыли в мешок, а также подключение пылесоса для принудительного пылеотвода.</t>
   </si>
@@ -1955,9 +1892,6 @@
     <t>Орбитально-шлифовальная машина ЗУБР ЗОШМ-450-125</t>
   </si>
   <si>
-    <t>Инструмент|Шлифмашинки|Эксцентриковые|Сетевые эксцентриковые шлифмашины|ЗУБР</t>
-  </si>
-  <si>
     <t>Орбитально-шлифовальная машина ЗУБР ЗОШМ-450-125 предназначена для очистки поверхностей от лака, краски, ржавчины и прочих загрязнений, а также полировки и шлифовки поверхностей. Модель оснащена системой крепления шлифлистов Velcro, что обеспечивает простую и быструю замену оснастки. Количество оборотов регулируется с помощью колесика сверху на корпусе.</t>
   </si>
   <si>
@@ -1995,9 +1929,6 @@
     <t>Эксцентриковая шлифовальная машина Вихрь ЭШМ-125Э 72/6/5</t>
   </si>
   <si>
-    <t>Инструмент|Шлифмашинки|Эксцентриковые|Сетевые эксцентриковые шлифмашины|Вихрь</t>
-  </si>
-  <si>
     <t>Эксцентриковая шлифовальная машина Вихрь ЭШМ-125Э 72/6/5 предназначена для шлифования и выравнивания различных поверхностей.
 Электронная регулировка частоты вращения позволяет подобрать оптимальный рабочий режим для каждого материала.
 Прорезиненная рукоятка снижает уровень вибрации во время работы и позволяет легко управлять инструментом одной рукой.</t>
@@ -2032,9 +1963,6 @@
   </si>
   <si>
     <t>Электрический лобзик ЗУБР 400 Вт Л-400</t>
-  </si>
-  <si>
-    <t>Инструмент|Лобзики|ЗУБР</t>
   </si>
   <si>
     <t>Электрический лобзик ЗУБР 400 Вт Л-400 предназначен для домашних мастеров. Подходит для пиления древесины, фанеры, ДСП, пластика, металла (при наличии соответствующей оснастки).
@@ -2172,9 +2100,6 @@
     <t>Лобзик REDVERG Basic JS450 6621683</t>
   </si>
   <si>
-    <t>Инструмент|Лобзики|REDVERG</t>
-  </si>
-  <si>
     <t>Лобзик REDVERG Basic JS450 6621683 предназначен для резки различных материалов.
 Прозрачный защитный экран защищает оператора от крупных опилок и не заслоняет обзор линии распила.
 Имеет регулятор частоты хода, что позволяет работать с различными материалами. 
@@ -2291,9 +2216,6 @@
   </si>
   <si>
     <t>Электрический лобзик ВИХРЬ ЛЭ-100 72/9/2</t>
-  </si>
-  <si>
-    <t>Инструмент|Лобзики|Вихрь</t>
   </si>
   <si>
     <t>Электрический лобзик ВИХРЬ ЛЭ-100 72/9/2 используется для распиливания заготовок, выполнения пропилов на заданную глубину. Предусмотрена регулировка оборотов для настройки инструмента под конкретную задачу. Удобная скобовидная рукоятка с мягкими накладками позволяет надежно удерживать инструмент во время работы. Качественные комплектующие увеличивают срок эксплуатации лобзика. Лобзик имеет прочную подошву. Представленная модель является самой мощной в серии. При продолжительной работе с инструментом клавишу "Пуск" можно зафиксировать в положении "старт". Вентиляционные отверстия на корпусе лобзика защищают рабочий механизм от перегрева.</t>
@@ -2462,9 +2384,6 @@
   </si>
   <si>
     <t>Лобзик Интерскол МП-100/700Э 15.1.1.11</t>
-  </si>
-  <si>
-    <t>Инструмент|Лобзики|Интерскол</t>
   </si>
   <si>
     <t>Лобзик Интерскол МП-100/700Э 15.1.1.11 предназначен для резки пиломатериалов, строительных и мебельных плит на основе древесины (ДСП, ЦСП и т.п.), листа и фасонного профиля из стали, цветного металла, пластмассы и других  материалов (кроме асбестосодержащих). Инструмент оснащен защитным экраном - для комфортной и безопасной работы.</t>
@@ -2510,9 +2429,6 @@
     <t>Лобзик Felisatti МП-55/500Э 386.5.1.00</t>
   </si>
   <si>
-    <t>Инструмент|Лобзики|Felisatti</t>
-  </si>
-  <si>
     <t>Felisatti</t>
   </si>
   <si>
@@ -2679,9 +2595,6 @@
     <t>Электрический лобзик Ресанта Л-100/850 75/9/4</t>
   </si>
   <si>
-    <t>Инструмент|Лобзики|Ресанта</t>
-  </si>
-  <si>
     <t>Электрический лобзик Ресанта Л-100/850 75/9/4 используется для резки деревянных или металлических заготовок.
 На корпусе предусмотрены вентиляционные отверстия для охлаждения двигателя.
 Чистота рабочего места. Предусмотрена возможность подключения пылесоса для удаления пыли и экономии времени на уборке</t>
@@ -2861,9 +2774,6 @@
     <t>Рубанок Зубр ЗР-750-82</t>
   </si>
   <si>
-    <t>Инструмент|Электрорубанки|ЗУБР</t>
-  </si>
-  <si>
     <t>Рубанок Зубр ЗР-750-82 - простой и надежный инструмент, который прекрасно строгает и выравнивает поверхности. Бесступенчатая регулировка глубины строгания и параллельный упор обеспечивают точность в работе. Имеется кнопка блокировки выключателя, что обеспечивает защиту от случайного включения инструмента. Ножи изготовлены из быстрорежущей стали  и имеют двустороннюю заточку, что гарантирует их долгий срок службы.</t>
   </si>
   <si>
@@ -2897,9 +2807,6 @@
   </si>
   <si>
     <t>Сварочный инверторный аппарат STEHER 160 А, VR-160</t>
-  </si>
-  <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|STEHER</t>
   </si>
   <si>
     <t>STEHER</t>
@@ -2992,9 +2899,6 @@
   </si>
   <si>
     <t>Инверторный сварочный аппарат Зубр 190 А, СА-190</t>
-  </si>
-  <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|ЗУБР</t>
   </si>
   <si>
     <t>Инверторный сварочный аппарат Зубр 190 А, СА-190 представляет собой надежное оборудования с высокой производительностью. Предназначен для ручной дуговой сварки покрытым электродом.
@@ -3083,9 +2987,6 @@
     <t>Инверторный сварочный аппарат Eurolux IWM160 65/26</t>
   </si>
   <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|Eurolux</t>
-  </si>
-  <si>
     <t>Eurolux</t>
   </si>
   <si>
@@ -3266,9 +3167,6 @@
     <t>Инверторный аппарат дуговой сварки СИБРТЕХ ИДС-170 94375</t>
   </si>
   <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|СИБРТЕХ</t>
-  </si>
-  <si>
     <t>СИБРТЕХ</t>
   </si>
   <si>
@@ -3390,9 +3288,6 @@
     <t>Инверторный аппарат ручной электродуговой сварки ММА Интерскол ИСА-160/7.1 259.1.0.00</t>
   </si>
   <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|Интерскол</t>
-  </si>
-  <si>
     <t>Инверторный аппарат ручной электродуговой сварки ММА Интерскол ИСА-160/7.1 259.1.0.00 подходит как для бытового, так и для профессионального использования при работе со штучными электродами. В верхней части корпуса предусмотрен ремень, который делает транспортировку удобной, позволяя переносить аппарат на плече с одного места на другое. Регулятор сварочного тока дает возможность быстро и точно выставить необходимый для работы параметр сварочного тока.</t>
   </si>
   <si>
@@ -3427,9 +3322,6 @@
   </si>
   <si>
     <t>Сварочный инверторный аппарат Ресанта САИ-190Т LUX 65/70</t>
-  </si>
-  <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные аппараты ММА (дуговая сварка электродами)|Сварочные аппараты - инверторы|Ресанта</t>
   </si>
   <si>
     <t>Сварочный инверторный аппарат Ресанта САИ-190Т LUX 65/70 предназначено для ручной дуговой сварки на постоянном токе. Данная модель имеет компактный корпус и малый вес, поэтому отлично подходит для работ на высоте и в полевых условиях.
@@ -3932,9 +3824,6 @@
   </si>
   <si>
     <t>Полуавтоматический инверторный сварочный аппарат Ресанта САИПА 165 65/8</t>
-  </si>
-  <si>
-    <t>Инструмент|Сварочное оборудование|Сварочные полуавтоматы (MIG-MAG)|Инверторные полуавтоматы (MIG-MAG)|Ресанта</t>
   </si>
   <si>
     <t>Ресанта САИПА 165 предназначен для сварки специальной проволокой. При нажатии клавиши на ручке проволока подается  автоматически, что делает сварной шов равномерным. Регулировка скорости подачи проволоки обуславливает толщину свариваемого шва. Диапазон тока 30-160 А предусматривает использование проволоки толщиной от 0.6 до 0.9 мм. Система охлаждения способствует поддержанию рабочей температуры. Аппарат автоматически отключается в случае перегрева. Электронное оборудование на основе IGBT технологий.</t>
@@ -3992,6 +3881,42 @@
 Опорная пластина – стальная штампованная подошва с двумя фиксирующими винтами М5. Регулировка ее наклона позволяет проводить пиление под углом от -45 до +45 градусов.
 К лобзику можно подключать пылесос, что позволит сохранить рабочее место в чистоте.
 Модель снабжена прорезиненным морозостойким сетевым проводом марки DIN VDE H05RN-F.</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Краскопульты электрические</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Глубинные вибраторы для бетона</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Граверы</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Отбойные молотки</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Сабельные пилы</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Строительные фены</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Циркулярные пилы</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Торцевые пилы</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Шлифовальные машины</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Электролобзики</t>
+  </si>
+  <si>
+    <t>Инструменты|Электроинструмент|Электрорубанки</t>
+  </si>
+  <si>
+    <t>Инструменты|Сварочное оборудование|Сварочные аппараты</t>
   </si>
 </sst>
 </file>
@@ -4359,13 +4284,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="69" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4411,3458 +4339,3458 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E7" t="s">
+        <v>696</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" t="s">
+        <v>697</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" t="s">
+        <v>697</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>698</v>
+      </c>
+      <c r="E12" t="s">
+        <v>698</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>699</v>
+      </c>
+      <c r="E13" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E14" t="s">
+        <v>699</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" t="s">
+        <v>699</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>699</v>
+      </c>
+      <c r="E16" t="s">
+        <v>699</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>700</v>
+      </c>
+      <c r="E17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>700</v>
+      </c>
+      <c r="E18" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" t="s">
+        <v>700</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" t="s">
+        <v>700</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>700</v>
+      </c>
+      <c r="E22" t="s">
+        <v>700</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>700</v>
+      </c>
+      <c r="E23" t="s">
+        <v>700</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>700</v>
+      </c>
+      <c r="E24" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>700</v>
+      </c>
+      <c r="E25" t="s">
+        <v>700</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>700</v>
+      </c>
+      <c r="E26" t="s">
+        <v>700</v>
+      </c>
+      <c r="F26" t="s">
         <v>74</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>700</v>
+      </c>
+      <c r="E27" t="s">
+        <v>700</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>701</v>
+      </c>
+      <c r="E28" t="s">
+        <v>701</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E29" t="s">
+        <v>701</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>701</v>
+      </c>
+      <c r="E30" t="s">
+        <v>701</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>701</v>
+      </c>
+      <c r="E31" t="s">
+        <v>701</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
+        <v>701</v>
+      </c>
+      <c r="E32" t="s">
+        <v>701</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>701</v>
+      </c>
+      <c r="E33" t="s">
+        <v>701</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>701</v>
+      </c>
+      <c r="E34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
+        <v>701</v>
+      </c>
+      <c r="E35" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" t="s">
+        <v>249</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>701</v>
+      </c>
+      <c r="E36" t="s">
+        <v>701</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" t="s">
+        <v>701</v>
+      </c>
+      <c r="E37" t="s">
+        <v>701</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>701</v>
+      </c>
+      <c r="E38" t="s">
+        <v>701</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" t="s">
+        <v>701</v>
+      </c>
+      <c r="E39" t="s">
+        <v>701</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" t="s">
+        <v>701</v>
+      </c>
+      <c r="E40" t="s">
+        <v>701</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" t="s">
+        <v>284</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" t="s">
+        <v>701</v>
+      </c>
+      <c r="E41" t="s">
+        <v>701</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>701</v>
+      </c>
+      <c r="E42" t="s">
+        <v>701</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" t="s">
+        <v>298</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" t="s">
+        <v>701</v>
+      </c>
+      <c r="E43" t="s">
+        <v>701</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>702</v>
+      </c>
+      <c r="E44" t="s">
+        <v>702</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" t="s">
+        <v>702</v>
+      </c>
+      <c r="E45" t="s">
+        <v>702</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46" t="s">
+        <v>702</v>
+      </c>
+      <c r="E46" t="s">
+        <v>702</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" t="s">
+        <v>321</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" t="s">
+        <v>702</v>
+      </c>
+      <c r="E47" t="s">
+        <v>702</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" t="s">
+        <v>702</v>
+      </c>
+      <c r="E48" t="s">
+        <v>702</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>334</v>
+      </c>
+      <c r="H48" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" t="s">
+        <v>702</v>
+      </c>
+      <c r="E49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H49" t="s">
+        <v>342</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" t="s">
+        <v>703</v>
+      </c>
+      <c r="E50" t="s">
+        <v>703</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>348</v>
+      </c>
+      <c r="H50" t="s">
+        <v>349</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" t="s">
+        <v>703</v>
+      </c>
+      <c r="E51" t="s">
+        <v>703</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>355</v>
+      </c>
+      <c r="H51" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" t="s">
+        <v>703</v>
+      </c>
+      <c r="E52" t="s">
+        <v>703</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" t="s">
+        <v>704</v>
+      </c>
+      <c r="E53" t="s">
+        <v>704</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>369</v>
+      </c>
+      <c r="H53" t="s">
+        <v>370</v>
+      </c>
+      <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" t="s">
+        <v>704</v>
+      </c>
+      <c r="E54" t="s">
+        <v>704</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>376</v>
+      </c>
+      <c r="H54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>704</v>
+      </c>
+      <c r="E55" t="s">
+        <v>704</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>383</v>
+      </c>
+      <c r="H55" t="s">
+        <v>384</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" t="s">
+        <v>704</v>
+      </c>
+      <c r="E56" t="s">
+        <v>704</v>
+      </c>
+      <c r="F56" t="s">
         <v>160</v>
       </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G56" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" t="s">
+        <v>391</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>394</v>
+      </c>
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" t="s">
+        <v>396</v>
+      </c>
+      <c r="D57" t="s">
+        <v>704</v>
+      </c>
+      <c r="E57" t="s">
+        <v>704</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" t="s">
+        <v>398</v>
+      </c>
+      <c r="I57" t="s">
+        <v>399</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>401</v>
+      </c>
+      <c r="B58" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" t="s">
+        <v>704</v>
+      </c>
+      <c r="E58" t="s">
+        <v>704</v>
+      </c>
+      <c r="F58" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I58" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>408</v>
+      </c>
+      <c r="B59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C59" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" t="s">
+        <v>704</v>
+      </c>
+      <c r="E59" t="s">
+        <v>704</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" t="s">
+        <v>412</v>
+      </c>
+      <c r="I59" t="s">
+        <v>413</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C60" t="s">
+        <v>417</v>
+      </c>
+      <c r="D60" t="s">
+        <v>704</v>
+      </c>
+      <c r="E60" t="s">
+        <v>704</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>418</v>
+      </c>
+      <c r="H60" t="s">
+        <v>419</v>
+      </c>
+      <c r="I60" t="s">
+        <v>420</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>422</v>
+      </c>
+      <c r="B61" t="s">
+        <v>423</v>
+      </c>
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" t="s">
+        <v>704</v>
+      </c>
+      <c r="E61" t="s">
+        <v>704</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>425</v>
+      </c>
+      <c r="H61" t="s">
+        <v>426</v>
+      </c>
+      <c r="I61" t="s">
+        <v>427</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62" t="s">
+        <v>431</v>
+      </c>
+      <c r="D62" t="s">
+        <v>704</v>
+      </c>
+      <c r="E62" t="s">
+        <v>704</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>432</v>
+      </c>
+      <c r="H62" t="s">
+        <v>433</v>
+      </c>
+      <c r="I62" t="s">
+        <v>434</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" t="s">
+        <v>437</v>
+      </c>
+      <c r="C63" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" t="s">
+        <v>704</v>
+      </c>
+      <c r="E63" t="s">
+        <v>704</v>
+      </c>
+      <c r="F63" t="s">
         <v>170</v>
       </c>
-      <c r="C22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" t="s">
-        <v>193</v>
-      </c>
-      <c r="I25" t="s">
-        <v>194</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" t="s">
-        <v>209</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" t="s">
-        <v>217</v>
-      </c>
-      <c r="J28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" t="s">
-        <v>224</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" t="s">
-        <v>230</v>
-      </c>
-      <c r="I30" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" t="s">
-        <v>237</v>
-      </c>
-      <c r="I31" t="s">
-        <v>238</v>
-      </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" t="s">
-        <v>245</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>258</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>265</v>
-      </c>
-      <c r="H35" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" t="s">
-        <v>267</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" t="s">
-        <v>257</v>
-      </c>
-      <c r="E36" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H36" t="s">
-        <v>273</v>
-      </c>
-      <c r="I36" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E37" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s">
-        <v>279</v>
-      </c>
-      <c r="H37" t="s">
-        <v>280</v>
-      </c>
-      <c r="I37" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>286</v>
-      </c>
-      <c r="H38" t="s">
-        <v>287</v>
-      </c>
-      <c r="I38" t="s">
-        <v>288</v>
-      </c>
-      <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>290</v>
-      </c>
-      <c r="B39" t="s">
-        <v>291</v>
-      </c>
-      <c r="C39" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" t="s">
-        <v>257</v>
-      </c>
-      <c r="E39" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H39" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" t="s">
-        <v>295</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" t="s">
-        <v>257</v>
-      </c>
-      <c r="E40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40" t="s">
-        <v>301</v>
-      </c>
-      <c r="I40" t="s">
-        <v>302</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>304</v>
-      </c>
-      <c r="B41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" t="s">
-        <v>307</v>
-      </c>
-      <c r="E41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>308</v>
-      </c>
-      <c r="H41" t="s">
-        <v>309</v>
-      </c>
-      <c r="I41" t="s">
-        <v>310</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>312</v>
-      </c>
-      <c r="B42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D42" t="s">
-        <v>307</v>
-      </c>
-      <c r="E42" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H42" t="s">
-        <v>316</v>
-      </c>
-      <c r="I42" t="s">
-        <v>317</v>
-      </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" t="s">
-        <v>306</v>
-      </c>
-      <c r="D43" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" t="s">
-        <v>307</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" t="s">
-        <v>308</v>
-      </c>
-      <c r="H43" t="s">
-        <v>309</v>
-      </c>
-      <c r="I43" t="s">
-        <v>310</v>
-      </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" t="s">
-        <v>324</v>
-      </c>
-      <c r="E44" t="s">
-        <v>324</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" t="s">
-        <v>327</v>
-      </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>329</v>
-      </c>
-      <c r="B45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" t="s">
-        <v>331</v>
-      </c>
-      <c r="D45" t="s">
-        <v>332</v>
-      </c>
-      <c r="E45" t="s">
-        <v>332</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" t="s">
-        <v>334</v>
-      </c>
-      <c r="I45" t="s">
-        <v>335</v>
-      </c>
-      <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" t="s">
-        <v>339</v>
-      </c>
-      <c r="D46" t="s">
-        <v>332</v>
-      </c>
-      <c r="E46" t="s">
-        <v>332</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>340</v>
-      </c>
-      <c r="H46" t="s">
-        <v>341</v>
-      </c>
-      <c r="I46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>344</v>
-      </c>
-      <c r="B47" t="s">
-        <v>345</v>
-      </c>
-      <c r="C47" t="s">
-        <v>346</v>
-      </c>
-      <c r="D47" t="s">
-        <v>332</v>
-      </c>
-      <c r="E47" t="s">
-        <v>332</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>347</v>
-      </c>
-      <c r="H47" t="s">
-        <v>348</v>
-      </c>
-      <c r="I47" t="s">
-        <v>349</v>
-      </c>
-      <c r="J47" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B48" t="s">
-        <v>352</v>
-      </c>
-      <c r="C48" t="s">
-        <v>353</v>
-      </c>
-      <c r="D48" t="s">
-        <v>332</v>
-      </c>
-      <c r="E48" t="s">
-        <v>332</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>354</v>
-      </c>
-      <c r="H48" t="s">
-        <v>355</v>
-      </c>
-      <c r="I48" t="s">
-        <v>356</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>358</v>
-      </c>
-      <c r="B49" t="s">
-        <v>359</v>
-      </c>
-      <c r="C49" t="s">
-        <v>360</v>
-      </c>
-      <c r="D49" t="s">
-        <v>332</v>
-      </c>
-      <c r="E49" t="s">
-        <v>332</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>361</v>
-      </c>
-      <c r="H49" t="s">
-        <v>362</v>
-      </c>
-      <c r="I49" t="s">
-        <v>363</v>
-      </c>
-      <c r="J49" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" t="s">
-        <v>366</v>
-      </c>
-      <c r="C50" t="s">
-        <v>367</v>
-      </c>
-      <c r="D50" t="s">
-        <v>368</v>
-      </c>
-      <c r="E50" t="s">
-        <v>368</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>369</v>
-      </c>
-      <c r="H50" t="s">
-        <v>370</v>
-      </c>
-      <c r="I50" t="s">
-        <v>371</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>373</v>
-      </c>
-      <c r="B51" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" t="s">
-        <v>375</v>
-      </c>
-      <c r="D51" t="s">
-        <v>376</v>
-      </c>
-      <c r="E51" t="s">
-        <v>376</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>377</v>
-      </c>
-      <c r="H51" t="s">
-        <v>378</v>
-      </c>
-      <c r="I51" t="s">
-        <v>379</v>
-      </c>
-      <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" t="s">
-        <v>383</v>
-      </c>
-      <c r="D52" t="s">
-        <v>384</v>
-      </c>
-      <c r="E52" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>385</v>
-      </c>
-      <c r="H52" t="s">
-        <v>386</v>
-      </c>
-      <c r="I52" t="s">
-        <v>387</v>
-      </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>389</v>
-      </c>
-      <c r="B53" t="s">
-        <v>390</v>
-      </c>
-      <c r="C53" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" t="s">
-        <v>392</v>
-      </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>393</v>
-      </c>
-      <c r="H53" t="s">
-        <v>394</v>
-      </c>
-      <c r="I53" t="s">
-        <v>395</v>
-      </c>
-      <c r="J53" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>397</v>
-      </c>
-      <c r="B54" t="s">
-        <v>398</v>
-      </c>
-      <c r="C54" t="s">
-        <v>399</v>
-      </c>
-      <c r="D54" t="s">
-        <v>392</v>
-      </c>
-      <c r="E54" t="s">
-        <v>392</v>
-      </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>400</v>
-      </c>
-      <c r="H54" t="s">
-        <v>401</v>
-      </c>
-      <c r="I54" t="s">
-        <v>402</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>404</v>
-      </c>
-      <c r="B55" t="s">
-        <v>405</v>
-      </c>
-      <c r="C55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D55" t="s">
-        <v>392</v>
-      </c>
-      <c r="E55" t="s">
-        <v>392</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>407</v>
-      </c>
-      <c r="H55" t="s">
-        <v>408</v>
-      </c>
-      <c r="I55" t="s">
-        <v>409</v>
-      </c>
-      <c r="J55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>411</v>
-      </c>
-      <c r="B56" t="s">
-        <v>412</v>
-      </c>
-      <c r="C56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D56" t="s">
-        <v>414</v>
-      </c>
-      <c r="E56" t="s">
-        <v>414</v>
-      </c>
-      <c r="F56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" t="s">
-        <v>415</v>
-      </c>
-      <c r="H56" t="s">
-        <v>416</v>
-      </c>
-      <c r="I56" t="s">
-        <v>417</v>
-      </c>
-      <c r="J56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>419</v>
-      </c>
-      <c r="B57" t="s">
-        <v>420</v>
-      </c>
-      <c r="C57" t="s">
-        <v>421</v>
-      </c>
-      <c r="D57" t="s">
-        <v>414</v>
-      </c>
-      <c r="E57" t="s">
-        <v>414</v>
-      </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" t="s">
-        <v>422</v>
-      </c>
-      <c r="H57" t="s">
-        <v>423</v>
-      </c>
-      <c r="I57" t="s">
-        <v>424</v>
-      </c>
-      <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>426</v>
-      </c>
-      <c r="B58" t="s">
-        <v>427</v>
-      </c>
-      <c r="C58" t="s">
-        <v>428</v>
-      </c>
-      <c r="D58" t="s">
-        <v>414</v>
-      </c>
-      <c r="E58" t="s">
-        <v>414</v>
-      </c>
-      <c r="F58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" t="s">
-        <v>429</v>
-      </c>
-      <c r="H58" t="s">
-        <v>430</v>
-      </c>
-      <c r="I58" t="s">
-        <v>431</v>
-      </c>
-      <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>433</v>
-      </c>
-      <c r="B59" t="s">
-        <v>434</v>
-      </c>
-      <c r="C59" t="s">
-        <v>435</v>
-      </c>
-      <c r="D59" t="s">
-        <v>436</v>
-      </c>
-      <c r="E59" t="s">
-        <v>436</v>
-      </c>
-      <c r="F59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>437</v>
-      </c>
-      <c r="H59" t="s">
-        <v>438</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="G63" t="s">
         <v>439</v>
       </c>
-      <c r="J59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="H63" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="I63" t="s">
         <v>441</v>
       </c>
-      <c r="B60" t="s">
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
         <v>442</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>443</v>
       </c>
-      <c r="D60" t="s">
-        <v>436</v>
-      </c>
-      <c r="E60" t="s">
-        <v>436</v>
-      </c>
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="B64" t="s">
         <v>444</v>
       </c>
-      <c r="H60" t="s">
+      <c r="C64" t="s">
         <v>445</v>
       </c>
-      <c r="I60" t="s">
+      <c r="D64" t="s">
+        <v>704</v>
+      </c>
+      <c r="E64" t="s">
+        <v>704</v>
+      </c>
+      <c r="F64" t="s">
         <v>446</v>
       </c>
-      <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="G64" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H64" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="I64" t="s">
         <v>448</v>
       </c>
-      <c r="B61" t="s">
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
         <v>449</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>450</v>
       </c>
-      <c r="D61" t="s">
-        <v>436</v>
-      </c>
-      <c r="E61" t="s">
-        <v>436</v>
-      </c>
-      <c r="F61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="B65" t="s">
         <v>451</v>
       </c>
-      <c r="H61" t="s">
+      <c r="C65" t="s">
         <v>452</v>
       </c>
-      <c r="I61" t="s">
+      <c r="D65" t="s">
+        <v>704</v>
+      </c>
+      <c r="E65" t="s">
+        <v>704</v>
+      </c>
+      <c r="F65" t="s">
+        <v>446</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H65" t="s">
         <v>453</v>
       </c>
-      <c r="J61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="I65" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
         <v>455</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>456</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B66" t="s">
         <v>457</v>
       </c>
-      <c r="D62" t="s">
-        <v>436</v>
-      </c>
-      <c r="E62" t="s">
-        <v>436</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="C66" t="s">
         <v>458</v>
       </c>
-      <c r="H62" t="s">
+      <c r="D66" t="s">
+        <v>704</v>
+      </c>
+      <c r="E66" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
         <v>459</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H66" t="s">
         <v>460</v>
       </c>
-      <c r="J62" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="I66" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
         <v>462</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>463</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B67" t="s">
         <v>464</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C67" t="s">
         <v>465</v>
       </c>
-      <c r="E63" t="s">
-        <v>465</v>
-      </c>
-      <c r="F63" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="D67" t="s">
+        <v>704</v>
+      </c>
+      <c r="E67" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
         <v>466</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H67" t="s">
         <v>467</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I67" t="s">
         <v>468</v>
       </c>
-      <c r="J63" t="s">
-        <v>19</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>470</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>471</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C68" t="s">
         <v>472</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D68" t="s">
+        <v>704</v>
+      </c>
+      <c r="E68" t="s">
+        <v>704</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s">
         <v>473</v>
       </c>
-      <c r="E64" t="s">
-        <v>473</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="H68" t="s">
         <v>474</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I68" t="s">
         <v>475</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
         <v>476</v>
       </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" t="s">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B69" t="s">
         <v>478</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C69" t="s">
         <v>479</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D69" t="s">
+        <v>704</v>
+      </c>
+      <c r="E69" t="s">
+        <v>704</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
         <v>480</v>
       </c>
-      <c r="D65" t="s">
-        <v>473</v>
-      </c>
-      <c r="E65" t="s">
-        <v>473</v>
-      </c>
-      <c r="F65" t="s">
-        <v>474</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="H69" t="s">
         <v>481</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I69" t="s">
         <v>482</v>
       </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>484</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" t="s">
         <v>485</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C70" t="s">
         <v>486</v>
       </c>
-      <c r="D66" t="s">
-        <v>465</v>
-      </c>
-      <c r="E66" t="s">
-        <v>465</v>
-      </c>
-      <c r="F66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="D70" t="s">
+        <v>704</v>
+      </c>
+      <c r="E70" t="s">
+        <v>704</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
         <v>487</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H70" t="s">
         <v>488</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I70" t="s">
         <v>489</v>
       </c>
-      <c r="J66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>491</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>492</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" t="s">
         <v>493</v>
       </c>
-      <c r="D67" t="s">
-        <v>465</v>
-      </c>
-      <c r="E67" t="s">
-        <v>465</v>
-      </c>
-      <c r="F67" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="D71" t="s">
+        <v>704</v>
+      </c>
+      <c r="E71" t="s">
+        <v>704</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
         <v>494</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H71" t="s">
         <v>495</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I71" t="s">
         <v>496</v>
       </c>
-      <c r="J67" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>498</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>499</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" t="s">
+        <v>493</v>
+      </c>
+      <c r="D72" t="s">
+        <v>704</v>
+      </c>
+      <c r="E72" t="s">
+        <v>704</v>
+      </c>
+      <c r="F72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s">
+        <v>494</v>
+      </c>
+      <c r="H72" t="s">
+        <v>495</v>
+      </c>
+      <c r="I72" t="s">
+        <v>496</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>500</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B73" t="s">
         <v>501</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C73" t="s">
+        <v>502</v>
+      </c>
+      <c r="D73" t="s">
+        <v>705</v>
+      </c>
+      <c r="E73" t="s">
+        <v>705</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>503</v>
+      </c>
+      <c r="H73" t="s">
+        <v>504</v>
+      </c>
+      <c r="I73" t="s">
+        <v>505</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74" t="s">
         <v>501</v>
       </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="C74" t="s">
         <v>502</v>
       </c>
-      <c r="H68" t="s">
+      <c r="D74" t="s">
+        <v>705</v>
+      </c>
+      <c r="E74" t="s">
+        <v>705</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
         <v>503</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H74" t="s">
         <v>504</v>
       </c>
-      <c r="J68" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="I74" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
         <v>506</v>
       </c>
-      <c r="B69" t="s">
-        <v>507</v>
-      </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>508</v>
       </c>
-      <c r="D69" t="s">
-        <v>501</v>
-      </c>
-      <c r="E69" t="s">
-        <v>501</v>
-      </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="B75" t="s">
         <v>509</v>
       </c>
-      <c r="H69" t="s">
+      <c r="C75" t="s">
         <v>510</v>
       </c>
-      <c r="I69" t="s">
+      <c r="D75" t="s">
+        <v>706</v>
+      </c>
+      <c r="E75" t="s">
+        <v>706</v>
+      </c>
+      <c r="F75" t="s">
         <v>511</v>
       </c>
-      <c r="J69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="G75" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="H75" t="s">
         <v>513</v>
       </c>
-      <c r="B70" t="s">
+      <c r="I75" t="s">
         <v>514</v>
       </c>
-      <c r="C70" t="s">
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
         <v>515</v>
       </c>
-      <c r="D70" t="s">
-        <v>501</v>
-      </c>
-      <c r="E70" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>516</v>
       </c>
-      <c r="H70" t="s">
+      <c r="B76" t="s">
         <v>517</v>
       </c>
-      <c r="I70" t="s">
+      <c r="C76" t="s">
         <v>518</v>
       </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="D76" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" t="s">
+        <v>706</v>
+      </c>
+      <c r="F76" t="s">
+        <v>511</v>
+      </c>
+      <c r="G76" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="H76" t="s">
         <v>520</v>
       </c>
-      <c r="B71" t="s">
+      <c r="I76" t="s">
         <v>521</v>
       </c>
-      <c r="C71" t="s">
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
         <v>522</v>
       </c>
-      <c r="D71" t="s">
-        <v>501</v>
-      </c>
-      <c r="E71" t="s">
-        <v>501</v>
-      </c>
-      <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>523</v>
       </c>
-      <c r="H71" t="s">
+      <c r="B77" t="s">
         <v>524</v>
       </c>
-      <c r="I71" t="s">
+      <c r="C77" t="s">
         <v>525</v>
       </c>
-      <c r="J71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="D77" t="s">
+        <v>706</v>
+      </c>
+      <c r="E77" t="s">
+        <v>706</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="H77" t="s">
         <v>527</v>
       </c>
-      <c r="B72" t="s">
+      <c r="I77" t="s">
         <v>528</v>
       </c>
-      <c r="C72" t="s">
-        <v>522</v>
-      </c>
-      <c r="D72" t="s">
-        <v>501</v>
-      </c>
-      <c r="E72" t="s">
-        <v>501</v>
-      </c>
-      <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s">
-        <v>523</v>
-      </c>
-      <c r="H72" t="s">
-        <v>524</v>
-      </c>
-      <c r="I72" t="s">
-        <v>525</v>
-      </c>
-      <c r="J72" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
         <v>529</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>530</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B78" t="s">
         <v>531</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C78" t="s">
         <v>532</v>
       </c>
-      <c r="E73" t="s">
-        <v>532</v>
-      </c>
-      <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="D78" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" t="s">
+        <v>706</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
         <v>533</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H78" t="s">
         <v>534</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I78" t="s">
         <v>535</v>
       </c>
-      <c r="J73" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>537</v>
       </c>
-      <c r="B74" t="s">
-        <v>530</v>
-      </c>
-      <c r="C74" t="s">
-        <v>531</v>
-      </c>
-      <c r="D74" t="s">
-        <v>532</v>
-      </c>
-      <c r="E74" t="s">
-        <v>532</v>
-      </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>533</v>
-      </c>
-      <c r="H74" t="s">
-        <v>534</v>
-      </c>
-      <c r="I74" t="s">
-        <v>535</v>
-      </c>
-      <c r="J74" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B79" t="s">
         <v>538</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C79" t="s">
         <v>539</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D79" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" t="s">
+        <v>706</v>
+      </c>
+      <c r="F79" t="s">
         <v>540</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G79" t="s">
         <v>541</v>
       </c>
-      <c r="E75" t="s">
-        <v>541</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="H79" t="s">
         <v>542</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I79" t="s">
         <v>543</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" t="s">
         <v>544</v>
       </c>
-      <c r="I75" t="s">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>545</v>
       </c>
-      <c r="J75" t="s">
-        <v>19</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="B80" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C80" t="s">
         <v>547</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D80" t="s">
+        <v>706</v>
+      </c>
+      <c r="E80" t="s">
+        <v>706</v>
+      </c>
+      <c r="F80" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" t="s">
         <v>548</v>
       </c>
-      <c r="C76" t="s">
+      <c r="H80" t="s">
         <v>549</v>
       </c>
-      <c r="D76" t="s">
-        <v>541</v>
-      </c>
-      <c r="E76" t="s">
-        <v>541</v>
-      </c>
-      <c r="F76" t="s">
-        <v>542</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="I80" t="s">
         <v>550</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
         <v>551</v>
       </c>
-      <c r="I76" t="s">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>552</v>
       </c>
-      <c r="J76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="B81" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C81" t="s">
         <v>554</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D81" t="s">
+        <v>706</v>
+      </c>
+      <c r="E81" t="s">
+        <v>706</v>
+      </c>
+      <c r="F81" t="s">
+        <v>540</v>
+      </c>
+      <c r="G81" t="s">
         <v>555</v>
       </c>
-      <c r="C77" t="s">
+      <c r="H81" t="s">
         <v>556</v>
       </c>
-      <c r="D77" t="s">
+      <c r="I81" t="s">
         <v>557</v>
       </c>
-      <c r="E77" t="s">
-        <v>557</v>
-      </c>
-      <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
         <v>558</v>
       </c>
-      <c r="H77" t="s">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>559</v>
       </c>
-      <c r="I77" t="s">
+      <c r="B82" t="s">
         <v>560</v>
       </c>
-      <c r="J77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="C82" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D82" t="s">
+        <v>706</v>
+      </c>
+      <c r="E82" t="s">
+        <v>706</v>
+      </c>
+      <c r="F82" t="s">
+        <v>540</v>
+      </c>
+      <c r="G82" t="s">
         <v>562</v>
       </c>
-      <c r="B78" t="s">
+      <c r="H82" t="s">
         <v>563</v>
       </c>
-      <c r="C78" t="s">
+      <c r="I82" t="s">
         <v>564</v>
       </c>
-      <c r="D78" t="s">
-        <v>557</v>
-      </c>
-      <c r="E78" t="s">
-        <v>557</v>
-      </c>
-      <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
         <v>565</v>
       </c>
-      <c r="H78" t="s">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>566</v>
       </c>
-      <c r="I78" t="s">
+      <c r="B83" t="s">
         <v>567</v>
       </c>
-      <c r="J78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="C83" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="D83" t="s">
+        <v>706</v>
+      </c>
+      <c r="E83" t="s">
+        <v>706</v>
+      </c>
+      <c r="F83" t="s">
+        <v>540</v>
+      </c>
+      <c r="G83" t="s">
         <v>569</v>
       </c>
-      <c r="B79" t="s">
+      <c r="H83" t="s">
         <v>570</v>
       </c>
-      <c r="C79" t="s">
+      <c r="I83" t="s">
         <v>571</v>
       </c>
-      <c r="D79" t="s">
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
         <v>572</v>
       </c>
-      <c r="E79" t="s">
-        <v>572</v>
-      </c>
-      <c r="F79" t="s">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>573</v>
       </c>
-      <c r="G79" t="s">
+      <c r="B84" t="s">
         <v>574</v>
       </c>
-      <c r="H79" t="s">
+      <c r="C84" t="s">
         <v>575</v>
       </c>
-      <c r="I79" t="s">
+      <c r="D84" t="s">
+        <v>706</v>
+      </c>
+      <c r="E84" t="s">
+        <v>706</v>
+      </c>
+      <c r="F84" t="s">
         <v>576</v>
       </c>
-      <c r="J79" t="s">
-        <v>19</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="G84" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="H84" t="s">
         <v>578</v>
       </c>
-      <c r="B80" t="s">
+      <c r="I84" t="s">
         <v>579</v>
       </c>
-      <c r="C80" t="s">
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
         <v>580</v>
       </c>
-      <c r="D80" t="s">
-        <v>572</v>
-      </c>
-      <c r="E80" t="s">
-        <v>572</v>
-      </c>
-      <c r="F80" t="s">
-        <v>573</v>
-      </c>
-      <c r="G80" t="s">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>581</v>
       </c>
-      <c r="H80" t="s">
+      <c r="B85" t="s">
         <v>582</v>
       </c>
-      <c r="I80" t="s">
+      <c r="C85" t="s">
         <v>583</v>
       </c>
-      <c r="J80" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="D85" t="s">
+        <v>706</v>
+      </c>
+      <c r="E85" t="s">
+        <v>706</v>
+      </c>
+      <c r="F85" t="s">
+        <v>576</v>
+      </c>
+      <c r="G85" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="H85" t="s">
         <v>585</v>
       </c>
-      <c r="B81" t="s">
+      <c r="I85" t="s">
         <v>586</v>
       </c>
-      <c r="C81" t="s">
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" t="s">
         <v>587</v>
       </c>
-      <c r="D81" t="s">
-        <v>572</v>
-      </c>
-      <c r="E81" t="s">
-        <v>572</v>
-      </c>
-      <c r="F81" t="s">
-        <v>573</v>
-      </c>
-      <c r="G81" t="s">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>588</v>
       </c>
-      <c r="H81" t="s">
+      <c r="B86" t="s">
         <v>589</v>
       </c>
-      <c r="I81" t="s">
+      <c r="C86" t="s">
         <v>590</v>
       </c>
-      <c r="J81" t="s">
-        <v>19</v>
-      </c>
-      <c r="K81" t="s">
+      <c r="D86" t="s">
+        <v>706</v>
+      </c>
+      <c r="E86" t="s">
+        <v>706</v>
+      </c>
+      <c r="F86" t="s">
+        <v>576</v>
+      </c>
+      <c r="G86" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="H86" t="s">
         <v>592</v>
       </c>
-      <c r="B82" t="s">
+      <c r="I86" t="s">
         <v>593</v>
       </c>
-      <c r="C82" t="s">
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
         <v>594</v>
       </c>
-      <c r="D82" t="s">
-        <v>572</v>
-      </c>
-      <c r="E82" t="s">
-        <v>572</v>
-      </c>
-      <c r="F82" t="s">
-        <v>573</v>
-      </c>
-      <c r="G82" t="s">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>595</v>
       </c>
-      <c r="H82" t="s">
+      <c r="B87" t="s">
         <v>596</v>
       </c>
-      <c r="I82" t="s">
+      <c r="C87" t="s">
         <v>597</v>
       </c>
-      <c r="J82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="D87" t="s">
+        <v>706</v>
+      </c>
+      <c r="E87" t="s">
+        <v>706</v>
+      </c>
+      <c r="F87" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="H87" t="s">
         <v>599</v>
       </c>
-      <c r="B83" t="s">
+      <c r="I87" t="s">
         <v>600</v>
       </c>
-      <c r="C83" t="s">
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
         <v>601</v>
       </c>
-      <c r="D83" t="s">
-        <v>572</v>
-      </c>
-      <c r="E83" t="s">
-        <v>572</v>
-      </c>
-      <c r="F83" t="s">
-        <v>573</v>
-      </c>
-      <c r="G83" t="s">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>602</v>
       </c>
-      <c r="H83" t="s">
+      <c r="B88" t="s">
         <v>603</v>
       </c>
-      <c r="I83" t="s">
+      <c r="C88" t="s">
         <v>604</v>
       </c>
-      <c r="J83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="D88" t="s">
+        <v>706</v>
+      </c>
+      <c r="E88" t="s">
+        <v>706</v>
+      </c>
+      <c r="F88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="H88" t="s">
         <v>606</v>
       </c>
-      <c r="B84" t="s">
+      <c r="I88" t="s">
         <v>607</v>
       </c>
-      <c r="C84" t="s">
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
         <v>608</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>609</v>
       </c>
-      <c r="E84" t="s">
-        <v>609</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="B89" t="s">
         <v>610</v>
       </c>
-      <c r="G84" t="s">
+      <c r="C89" t="s">
         <v>611</v>
       </c>
-      <c r="H84" t="s">
+      <c r="D89" t="s">
+        <v>706</v>
+      </c>
+      <c r="E89" t="s">
+        <v>706</v>
+      </c>
+      <c r="F89" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" t="s">
         <v>612</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H89" t="s">
         <v>613</v>
       </c>
-      <c r="J84" t="s">
-        <v>19</v>
-      </c>
-      <c r="K84" t="s">
+      <c r="I89" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
         <v>615</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>616</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B90" t="s">
         <v>617</v>
       </c>
-      <c r="D85" t="s">
-        <v>609</v>
-      </c>
-      <c r="E85" t="s">
-        <v>609</v>
-      </c>
-      <c r="F85" t="s">
-        <v>610</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="C90" t="s">
         <v>618</v>
       </c>
-      <c r="H85" t="s">
+      <c r="D90" t="s">
+        <v>706</v>
+      </c>
+      <c r="E90" t="s">
+        <v>706</v>
+      </c>
+      <c r="F90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" t="s">
         <v>619</v>
       </c>
-      <c r="I85" t="s">
+      <c r="H90" t="s">
         <v>620</v>
       </c>
-      <c r="J85" t="s">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="I90" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
         <v>622</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>623</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B91" t="s">
         <v>624</v>
       </c>
-      <c r="D86" t="s">
-        <v>609</v>
-      </c>
-      <c r="E86" t="s">
-        <v>609</v>
-      </c>
-      <c r="F86" t="s">
-        <v>610</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="C91" t="s">
         <v>625</v>
       </c>
-      <c r="H86" t="s">
+      <c r="D91" t="s">
+        <v>706</v>
+      </c>
+      <c r="E91" t="s">
+        <v>706</v>
+      </c>
+      <c r="F91" t="s">
+        <v>74</v>
+      </c>
+      <c r="G91" t="s">
         <v>626</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H91" t="s">
         <v>627</v>
       </c>
-      <c r="J86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" t="s">
+      <c r="I91" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
         <v>629</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>630</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B92" t="s">
         <v>631</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C92" t="s">
         <v>632</v>
       </c>
-      <c r="E87" t="s">
-        <v>632</v>
-      </c>
-      <c r="F87" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="D92" t="s">
+        <v>706</v>
+      </c>
+      <c r="E92" t="s">
+        <v>706</v>
+      </c>
+      <c r="F92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" t="s">
         <v>633</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H92" t="s">
         <v>634</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I92" t="s">
         <v>635</v>
       </c>
-      <c r="J87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>637</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B93" t="s">
         <v>638</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C93" t="s">
         <v>639</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
+        <v>706</v>
+      </c>
+      <c r="E93" t="s">
+        <v>706</v>
+      </c>
+      <c r="F93" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" t="s">
         <v>640</v>
       </c>
-      <c r="E88" t="s">
-        <v>640</v>
-      </c>
-      <c r="F88" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H93" t="s">
         <v>641</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I93" t="s">
         <v>642</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
         <v>643</v>
       </c>
-      <c r="J88" t="s">
-        <v>19</v>
-      </c>
-      <c r="K88" t="s">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B94" t="s">
         <v>645</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C94" t="s">
         <v>646</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D94" t="s">
+        <v>706</v>
+      </c>
+      <c r="E94" t="s">
+        <v>706</v>
+      </c>
+      <c r="F94" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" t="s">
         <v>647</v>
       </c>
-      <c r="D89" t="s">
-        <v>640</v>
-      </c>
-      <c r="E89" t="s">
-        <v>640</v>
-      </c>
-      <c r="F89" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H94" t="s">
         <v>648</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I94" t="s">
         <v>649</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" t="s">
         <v>650</v>
       </c>
-      <c r="J89" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89" t="s">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B95" t="s">
         <v>652</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C95" t="s">
         <v>653</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D95" t="s">
+        <v>706</v>
+      </c>
+      <c r="E95" t="s">
+        <v>706</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" t="s">
         <v>654</v>
       </c>
-      <c r="D90" t="s">
-        <v>640</v>
-      </c>
-      <c r="E90" t="s">
-        <v>640</v>
-      </c>
-      <c r="F90" t="s">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H95" t="s">
         <v>655</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I95" t="s">
         <v>656</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
         <v>657</v>
       </c>
-      <c r="J90" t="s">
-        <v>19</v>
-      </c>
-      <c r="K90" t="s">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B96" t="s">
         <v>659</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C96" t="s">
         <v>660</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D96" t="s">
+        <v>706</v>
+      </c>
+      <c r="E96" t="s">
+        <v>706</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" t="s">
         <v>661</v>
       </c>
-      <c r="D91" t="s">
-        <v>640</v>
-      </c>
-      <c r="E91" t="s">
-        <v>640</v>
-      </c>
-      <c r="F91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H96" t="s">
         <v>662</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I96" t="s">
         <v>663</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
         <v>664</v>
       </c>
-      <c r="J91" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B97" t="s">
         <v>666</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C97" t="s">
         <v>667</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D97" t="s">
+        <v>706</v>
+      </c>
+      <c r="E97" t="s">
+        <v>706</v>
+      </c>
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" t="s">
         <v>668</v>
       </c>
-      <c r="D92" t="s">
-        <v>640</v>
-      </c>
-      <c r="E92" t="s">
-        <v>640</v>
-      </c>
-      <c r="F92" t="s">
-        <v>80</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H97" t="s">
         <v>669</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I97" t="s">
         <v>670</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
         <v>671</v>
       </c>
-      <c r="J92" t="s">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B98" t="s">
         <v>673</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C98" t="s">
         <v>674</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D98" t="s">
+        <v>706</v>
+      </c>
+      <c r="E98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F98" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" t="s">
         <v>675</v>
       </c>
-      <c r="D93" t="s">
-        <v>640</v>
-      </c>
-      <c r="E93" t="s">
-        <v>640</v>
-      </c>
-      <c r="F93" t="s">
-        <v>80</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H98" t="s">
         <v>676</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I98" t="s">
         <v>677</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
         <v>678</v>
       </c>
-      <c r="J93" t="s">
-        <v>19</v>
-      </c>
-      <c r="K93" t="s">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B99" t="s">
         <v>680</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C99" t="s">
         <v>681</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D99" t="s">
+        <v>706</v>
+      </c>
+      <c r="E99" t="s">
+        <v>706</v>
+      </c>
+      <c r="F99" t="s">
+        <v>74</v>
+      </c>
+      <c r="G99" t="s">
         <v>682</v>
       </c>
-      <c r="D94" t="s">
-        <v>640</v>
-      </c>
-      <c r="E94" t="s">
-        <v>640</v>
-      </c>
-      <c r="F94" t="s">
-        <v>80</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H99" t="s">
         <v>683</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I99" t="s">
         <v>684</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
         <v>685</v>
       </c>
-      <c r="J94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B100" t="s">
         <v>687</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C100" t="s">
         <v>688</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D100" t="s">
+        <v>706</v>
+      </c>
+      <c r="E100" t="s">
+        <v>706</v>
+      </c>
+      <c r="F100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G100" t="s">
         <v>689</v>
       </c>
-      <c r="D95" t="s">
-        <v>640</v>
-      </c>
-      <c r="E95" t="s">
-        <v>640</v>
-      </c>
-      <c r="F95" t="s">
-        <v>80</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H100" t="s">
         <v>690</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I100" t="s">
         <v>691</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
         <v>692</v>
-      </c>
-      <c r="J95" t="s">
-        <v>19</v>
-      </c>
-      <c r="K95" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>694</v>
-      </c>
-      <c r="B96" t="s">
-        <v>695</v>
-      </c>
-      <c r="C96" t="s">
-        <v>696</v>
-      </c>
-      <c r="D96" t="s">
-        <v>640</v>
-      </c>
-      <c r="E96" t="s">
-        <v>640</v>
-      </c>
-      <c r="F96" t="s">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s">
-        <v>697</v>
-      </c>
-      <c r="H96" t="s">
-        <v>698</v>
-      </c>
-      <c r="I96" t="s">
-        <v>699</v>
-      </c>
-      <c r="J96" t="s">
-        <v>19</v>
-      </c>
-      <c r="K96" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>701</v>
-      </c>
-      <c r="B97" t="s">
-        <v>702</v>
-      </c>
-      <c r="C97" t="s">
-        <v>703</v>
-      </c>
-      <c r="D97" t="s">
-        <v>640</v>
-      </c>
-      <c r="E97" t="s">
-        <v>640</v>
-      </c>
-      <c r="F97" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s">
-        <v>704</v>
-      </c>
-      <c r="H97" t="s">
-        <v>705</v>
-      </c>
-      <c r="I97" t="s">
-        <v>706</v>
-      </c>
-      <c r="J97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K97" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>708</v>
-      </c>
-      <c r="B98" t="s">
-        <v>709</v>
-      </c>
-      <c r="C98" t="s">
-        <v>710</v>
-      </c>
-      <c r="D98" t="s">
-        <v>640</v>
-      </c>
-      <c r="E98" t="s">
-        <v>640</v>
-      </c>
-      <c r="F98" t="s">
-        <v>80</v>
-      </c>
-      <c r="G98" t="s">
-        <v>711</v>
-      </c>
-      <c r="H98" t="s">
-        <v>712</v>
-      </c>
-      <c r="I98" t="s">
-        <v>713</v>
-      </c>
-      <c r="J98" t="s">
-        <v>19</v>
-      </c>
-      <c r="K98" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>715</v>
-      </c>
-      <c r="B99" t="s">
-        <v>716</v>
-      </c>
-      <c r="C99" t="s">
-        <v>717</v>
-      </c>
-      <c r="D99" t="s">
-        <v>640</v>
-      </c>
-      <c r="E99" t="s">
-        <v>640</v>
-      </c>
-      <c r="F99" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s">
-        <v>718</v>
-      </c>
-      <c r="H99" t="s">
-        <v>719</v>
-      </c>
-      <c r="I99" t="s">
-        <v>720</v>
-      </c>
-      <c r="J99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K99" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>722</v>
-      </c>
-      <c r="B100" t="s">
-        <v>723</v>
-      </c>
-      <c r="C100" t="s">
-        <v>724</v>
-      </c>
-      <c r="D100" t="s">
-        <v>725</v>
-      </c>
-      <c r="E100" t="s">
-        <v>725</v>
-      </c>
-      <c r="F100" t="s">
-        <v>80</v>
-      </c>
-      <c r="G100" t="s">
-        <v>726</v>
-      </c>
-      <c r="H100" t="s">
-        <v>727</v>
-      </c>
-      <c r="I100" t="s">
-        <v>728</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>
